--- a/2022/07-plostina/07-VKCT2022-plostina.xlsx
+++ b/2022/07-plostina/07-VKCT2022-plostina.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="164">
   <si>
     <t xml:space="preserve">KATEGORIE</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t xml:space="preserve">Junioři (2005-2007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(cas -1)</t>
   </si>
   <si>
     <t xml:space="preserve">Mana Tomáš</t>
@@ -728,10 +725,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1220,7 +1217,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1713,7 +1710,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2157,13 +2154,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2193,9 +2190,6 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="3" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -2228,7 +2222,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>2006</v>
@@ -2239,7 +2233,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="n">
-        <v>0.0196990740740741</v>
+        <v>0.0183101851851852</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>1</v>
@@ -2250,7 +2244,7 @@
         <v>114</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>2007</v>
@@ -2261,7 +2255,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="n">
-        <v>0.0199652777777778</v>
+        <v>0.0185763888888889</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>2</v>
@@ -2272,7 +2266,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>2007</v>
@@ -2283,7 +2277,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="n">
-        <v>0.0208564814814815</v>
+        <v>0.0194675925925926</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>3</v>
@@ -2294,7 +2288,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>2007</v>
@@ -2305,7 +2299,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11" t="n">
-        <v>0.0214351851851852</v>
+        <v>0.0200462962962963</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>4</v>
@@ -2316,18 +2310,18 @@
         <v>124</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>2005</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="n">
-        <v>0.0215393518518519</v>
+        <v>0.020150462962963</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>5</v>
@@ -2338,18 +2332,18 @@
         <v>122</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>2006</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="n">
-        <v>0.0218634259259259</v>
+        <v>0.020474537037037</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>6</v>
@@ -2360,18 +2354,18 @@
         <v>113</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>2007</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11" t="n">
-        <v>0.0259375</v>
+        <v>0.0245486111111111</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>7</v>
@@ -2696,11 +2690,11 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2717,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -2762,7 +2756,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="10" t="n">
         <v>2009</v>
@@ -2771,9 +2765,9 @@
         <v>28</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="11" t="n">
-        <v>0.0186458333333333</v>
+        <v>0.0165625</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>1</v>
@@ -2784,18 +2778,18 @@
         <v>116</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>2003</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="11" t="n">
-        <v>0.0189814814814815</v>
+        <v>0.0168981481481482</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>2</v>
@@ -2806,7 +2800,7 @@
         <v>120</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="10" t="n">
         <v>2007</v>
@@ -2815,9 +2809,9 @@
         <v>30</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="11" t="n">
-        <v>0.0191782407407407</v>
+        <v>0.0170949074074074</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>3</v>
@@ -3143,7 +3137,26 @@
       <c r="G38" s="7"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="6"/>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3164,11 +3177,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3185,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -3230,18 +3243,18 @@
         <v>134</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>1972</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="11" t="n">
-        <v>0.0219097222222222</v>
+        <v>0.0198263888888889</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>1</v>
@@ -3252,7 +3265,7 @@
         <v>139</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1979</v>
@@ -3261,9 +3274,9 @@
         <v>28</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="11" t="n">
-        <v>0.0234027777777778</v>
+        <v>0.0213194444444445</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>2</v>
@@ -3642,7 +3655,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3659,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -3704,13 +3717,13 @@
         <v>125</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -3726,13 +3739,13 @@
         <v>90</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>2004</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -3748,7 +3761,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>1993</v>
@@ -3770,13 +3783,13 @@
         <v>137</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>2004</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -3792,13 +3805,13 @@
         <v>108</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>2001</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -3814,19 +3827,19 @@
         <v>109</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>1989</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="11"/>
       <c r="H9" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4162,7 +4175,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4179,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -4224,13 +4237,13 @@
         <v>138</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>1975</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -4246,13 +4259,13 @@
         <v>123</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1976</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -4268,13 +4281,13 @@
         <v>121</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>1976</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -4290,13 +4303,13 @@
         <v>128</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>1977</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -4312,13 +4325,13 @@
         <v>131</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>1980</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -4334,13 +4347,13 @@
         <v>95</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>1977</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -4356,7 +4369,7 @@
         <v>141</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>1976</v>
@@ -4378,19 +4391,19 @@
         <v>127</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>1979</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="11"/>
       <c r="H11" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4703,10 +4716,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4723,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -4768,18 +4781,18 @@
         <v>130</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>1972</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="11" t="n">
-        <v>0.017037037037037</v>
+        <v>0.0156481481481481</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>1</v>
@@ -4790,7 +4803,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1971</v>
@@ -4799,9 +4812,9 @@
         <v>46</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="11" t="n">
-        <v>0.017650462962963</v>
+        <v>0.0162615740740741</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>2</v>
@@ -4812,7 +4825,7 @@
         <v>135</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>1964</v>
@@ -4821,9 +4834,9 @@
         <v>30</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="11" t="n">
-        <v>0.0180902777777778</v>
+        <v>0.0167013888888889</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>3</v>
@@ -4834,18 +4847,18 @@
         <v>136</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>1967</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="11" t="n">
-        <v>0.0189351851851852</v>
+        <v>0.0175462962962963</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>4</v>
@@ -4856,7 +4869,7 @@
         <v>133</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>1969</v>
@@ -4865,9 +4878,9 @@
         <v>10</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="11" t="n">
-        <v>0.0206944444444444</v>
+        <v>0.0193055555555555</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>5</v>
@@ -4878,18 +4891,18 @@
         <v>129</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>1972</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="11" t="n">
-        <v>0.0207638888888889</v>
+        <v>0.019375</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>6</v>
@@ -4900,18 +4913,18 @@
         <v>111</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>1949</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="11" t="n">
-        <v>0.0239236111111111</v>
+        <v>0.0225347222222222</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>7</v>
@@ -5240,7 +5253,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5759,7 +5772,7 @@
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6276,7 +6289,7 @@
       <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6769,7 +6782,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7328,11 +7341,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7897,7 +7910,7 @@
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8412,7 +8425,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8893,7 +8906,7 @@
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
